--- a/nr-mv-MS/ig/StructureDefinition-as-healthcareservice-social-equipment.xlsx
+++ b/nr-mv-MS/ig/StructureDefinition-as-healthcareservice-social-equipment.xlsx
@@ -9,9 +9,6 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$192</definedName>
-  </definedNames>
 </workbook>
 </file>
 
@@ -60,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T14:08:34+00:00</t>
+    <t>2025-10-08T14:26:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2198,21 +2195,6 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="22"/>
-        <i val="true"/>
-      </font>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -2557,7 +2539,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" hidden="true">
+    <row r="2">
       <c r="A2" t="s" s="2">
         <v>30</v>
       </c>
@@ -2666,7 +2648,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" hidden="true">
+    <row r="3">
       <c r="A3" t="s" s="2">
         <v>85</v>
       </c>
@@ -2777,7 +2759,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" hidden="true">
+    <row r="4">
       <c r="A4" t="s" s="2">
         <v>93</v>
       </c>
@@ -2886,7 +2868,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" hidden="true">
+    <row r="5">
       <c r="A5" t="s" s="2">
         <v>99</v>
       </c>
@@ -2995,7 +2977,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" hidden="true">
+    <row r="6">
       <c r="A6" t="s" s="2">
         <v>105</v>
       </c>
@@ -3127,7 +3109,7 @@
         <v>86</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>76</v>
@@ -3217,7 +3199,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" hidden="true">
+    <row r="8">
       <c r="A8" t="s" s="2">
         <v>121</v>
       </c>
@@ -3328,7 +3310,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" hidden="true">
+    <row r="9">
       <c r="A9" t="s" s="2">
         <v>126</v>
       </c>
@@ -3439,7 +3421,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>132</v>
       </c>
@@ -3550,7 +3532,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>138</v>
       </c>
@@ -3661,7 +3643,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
         <v>144</v>
       </c>
@@ -3772,7 +3754,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
         <v>153</v>
       </c>
@@ -3883,7 +3865,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>161</v>
       </c>
@@ -3994,7 +3976,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
         <v>166</v>
       </c>
@@ -4105,7 +4087,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>175</v>
       </c>
@@ -4216,7 +4198,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>183</v>
       </c>
@@ -4327,7 +4309,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
         <v>191</v>
       </c>
@@ -4455,7 +4437,7 @@
         <v>78</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>76</v>
@@ -4545,7 +4527,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
         <v>201</v>
       </c>
@@ -4654,7 +4636,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
         <v>203</v>
       </c>
@@ -4765,7 +4747,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>205</v>
       </c>
@@ -4876,7 +4858,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>208</v>
       </c>
@@ -4985,7 +4967,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>210</v>
       </c>
@@ -5094,7 +5076,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
         <v>212</v>
       </c>
@@ -5205,7 +5187,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
         <v>218</v>
       </c>
@@ -5314,7 +5296,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
         <v>224</v>
       </c>
@@ -5425,7 +5407,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
         <v>226</v>
       </c>
@@ -5534,7 +5516,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
         <v>227</v>
       </c>
@@ -5643,7 +5625,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
         <v>228</v>
       </c>
@@ -5754,7 +5736,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
         <v>229</v>
       </c>
@@ -5863,7 +5845,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
         <v>231</v>
       </c>
@@ -5972,7 +5954,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
         <v>233</v>
       </c>
@@ -6083,7 +6065,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
         <v>235</v>
       </c>
@@ -6194,7 +6176,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
         <v>244</v>
       </c>
@@ -6307,7 +6289,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
         <v>252</v>
       </c>
@@ -6418,7 +6400,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
         <v>255</v>
       </c>
@@ -6527,7 +6509,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
         <v>256</v>
       </c>
@@ -6636,7 +6618,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
         <v>257</v>
       </c>
@@ -6747,7 +6729,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
         <v>258</v>
       </c>
@@ -6856,7 +6838,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
         <v>259</v>
       </c>
@@ -6967,7 +6949,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
         <v>262</v>
       </c>
@@ -7076,7 +7058,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
         <v>263</v>
       </c>
@@ -7185,7 +7167,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
         <v>264</v>
       </c>
@@ -7296,7 +7278,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
         <v>265</v>
       </c>
@@ -7405,7 +7387,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
         <v>267</v>
       </c>
@@ -7516,7 +7498,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
         <v>270</v>
       </c>
@@ -7646,7 +7628,7 @@
         <v>78</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>76</v>
@@ -7736,7 +7718,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
         <v>278</v>
       </c>
@@ -7845,7 +7827,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
         <v>279</v>
       </c>
@@ -7956,7 +7938,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
         <v>280</v>
       </c>
@@ -8067,7 +8049,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
         <v>283</v>
       </c>
@@ -8176,7 +8158,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
         <v>284</v>
       </c>
@@ -8285,7 +8267,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
         <v>285</v>
       </c>
@@ -8396,7 +8378,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
         <v>286</v>
       </c>
@@ -8505,7 +8487,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
         <v>287</v>
       </c>
@@ -8616,7 +8598,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
         <v>290</v>
       </c>
@@ -8725,7 +8707,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
         <v>291</v>
       </c>
@@ -8834,7 +8816,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
         <v>292</v>
       </c>
@@ -8945,7 +8927,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
         <v>293</v>
       </c>
@@ -9054,7 +9036,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
         <v>294</v>
       </c>
@@ -9165,7 +9147,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
         <v>297</v>
       </c>
@@ -9274,7 +9256,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
         <v>298</v>
       </c>
@@ -9383,7 +9365,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
         <v>299</v>
       </c>
@@ -9494,7 +9476,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
         <v>300</v>
       </c>
@@ -9603,7 +9585,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="66" hidden="true">
+    <row r="66">
       <c r="A66" t="s" s="2">
         <v>301</v>
       </c>
@@ -9714,7 +9696,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
         <v>304</v>
       </c>
@@ -9823,7 +9805,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
         <v>305</v>
       </c>
@@ -9932,7 +9914,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
         <v>306</v>
       </c>
@@ -10043,7 +10025,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
         <v>307</v>
       </c>
@@ -10150,7 +10132,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
         <v>311</v>
       </c>
@@ -10261,7 +10243,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="72" hidden="true">
+    <row r="72">
       <c r="A72" t="s" s="2">
         <v>313</v>
       </c>
@@ -10391,7 +10373,7 @@
         <v>78</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="I73" t="s" s="2">
         <v>76</v>
@@ -10481,7 +10463,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="74" hidden="true">
+    <row r="74">
       <c r="A74" t="s" s="2">
         <v>319</v>
       </c>
@@ -10590,7 +10572,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="75" hidden="true">
+    <row r="75">
       <c r="A75" t="s" s="2">
         <v>320</v>
       </c>
@@ -10701,7 +10683,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="76" hidden="true">
+    <row r="76">
       <c r="A76" t="s" s="2">
         <v>321</v>
       </c>
@@ -10812,7 +10794,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="77" hidden="true">
+    <row r="77">
       <c r="A77" t="s" s="2">
         <v>323</v>
       </c>
@@ -10921,7 +10903,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" hidden="true">
+    <row r="78">
       <c r="A78" t="s" s="2">
         <v>324</v>
       </c>
@@ -11030,7 +11012,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="79" hidden="true">
+    <row r="79">
       <c r="A79" t="s" s="2">
         <v>325</v>
       </c>
@@ -11141,7 +11123,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="80" hidden="true">
+    <row r="80">
       <c r="A80" t="s" s="2">
         <v>326</v>
       </c>
@@ -11250,7 +11232,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="81" hidden="true">
+    <row r="81">
       <c r="A81" t="s" s="2">
         <v>328</v>
       </c>
@@ -11359,7 +11341,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="82" hidden="true">
+    <row r="82">
       <c r="A82" t="s" s="2">
         <v>329</v>
       </c>
@@ -11470,7 +11452,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="83" hidden="true">
+    <row r="83">
       <c r="A83" t="s" s="2">
         <v>330</v>
       </c>
@@ -11581,7 +11563,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="84" hidden="true">
+    <row r="84">
       <c r="A84" t="s" s="2">
         <v>338</v>
       </c>
@@ -11692,7 +11674,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="85" hidden="true">
+    <row r="85">
       <c r="A85" t="s" s="2">
         <v>345</v>
       </c>
@@ -11803,7 +11785,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="86" hidden="true">
+    <row r="86">
       <c r="A86" t="s" s="2">
         <v>347</v>
       </c>
@@ -11912,7 +11894,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="87" hidden="true">
+    <row r="87">
       <c r="A87" t="s" s="2">
         <v>348</v>
       </c>
@@ -12021,7 +12003,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="88" hidden="true">
+    <row r="88">
       <c r="A88" t="s" s="2">
         <v>349</v>
       </c>
@@ -12132,7 +12114,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="89" hidden="true">
+    <row r="89">
       <c r="A89" t="s" s="2">
         <v>350</v>
       </c>
@@ -12241,7 +12223,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="90" hidden="true">
+    <row r="90">
       <c r="A90" t="s" s="2">
         <v>351</v>
       </c>
@@ -12350,7 +12332,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="91" hidden="true">
+    <row r="91">
       <c r="A91" t="s" s="2">
         <v>352</v>
       </c>
@@ -12461,7 +12443,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="92" hidden="true">
+    <row r="92">
       <c r="A92" t="s" s="2">
         <v>353</v>
       </c>
@@ -12572,7 +12554,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="93" hidden="true">
+    <row r="93">
       <c r="A93" t="s" s="2">
         <v>355</v>
       </c>
@@ -12683,7 +12665,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="94" hidden="true">
+    <row r="94">
       <c r="A94" t="s" s="2">
         <v>356</v>
       </c>
@@ -12794,7 +12776,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="95" hidden="true">
+    <row r="95">
       <c r="A95" t="s" s="2">
         <v>358</v>
       </c>
@@ -12924,7 +12906,7 @@
         <v>78</v>
       </c>
       <c r="H96" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="I96" t="s" s="2">
         <v>76</v>
@@ -13014,7 +12996,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="97" hidden="true">
+    <row r="97">
       <c r="A97" t="s" s="2">
         <v>364</v>
       </c>
@@ -13123,7 +13105,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="98" hidden="true">
+    <row r="98">
       <c r="A98" t="s" s="2">
         <v>365</v>
       </c>
@@ -13234,7 +13216,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="99" hidden="true">
+    <row r="99">
       <c r="A99" t="s" s="2">
         <v>366</v>
       </c>
@@ -13345,7 +13327,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="100" hidden="true">
+    <row r="100">
       <c r="A100" t="s" s="2">
         <v>369</v>
       </c>
@@ -13454,7 +13436,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="101" hidden="true">
+    <row r="101">
       <c r="A101" t="s" s="2">
         <v>370</v>
       </c>
@@ -13563,7 +13545,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="102" hidden="true">
+    <row r="102">
       <c r="A102" t="s" s="2">
         <v>371</v>
       </c>
@@ -13674,7 +13656,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="103" hidden="true">
+    <row r="103">
       <c r="A103" t="s" s="2">
         <v>372</v>
       </c>
@@ -13783,7 +13765,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="104" hidden="true">
+    <row r="104">
       <c r="A104" t="s" s="2">
         <v>374</v>
       </c>
@@ -13894,7 +13876,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="105" hidden="true">
+    <row r="105">
       <c r="A105" t="s" s="2">
         <v>377</v>
       </c>
@@ -14003,7 +13985,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="106" hidden="true">
+    <row r="106">
       <c r="A106" t="s" s="2">
         <v>378</v>
       </c>
@@ -14112,7 +14094,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="107" hidden="true">
+    <row r="107">
       <c r="A107" t="s" s="2">
         <v>379</v>
       </c>
@@ -14223,7 +14205,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="108" hidden="true">
+    <row r="108">
       <c r="A108" t="s" s="2">
         <v>380</v>
       </c>
@@ -14332,7 +14314,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="109" hidden="true">
+    <row r="109">
       <c r="A109" t="s" s="2">
         <v>381</v>
       </c>
@@ -14443,7 +14425,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="110" hidden="true">
+    <row r="110">
       <c r="A110" t="s" s="2">
         <v>384</v>
       </c>
@@ -14552,7 +14534,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="111" hidden="true">
+    <row r="111">
       <c r="A111" t="s" s="2">
         <v>385</v>
       </c>
@@ -14661,7 +14643,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="112" hidden="true">
+    <row r="112">
       <c r="A112" t="s" s="2">
         <v>386</v>
       </c>
@@ -14772,7 +14754,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="113" hidden="true">
+    <row r="113">
       <c r="A113" t="s" s="2">
         <v>387</v>
       </c>
@@ -14881,7 +14863,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="114" hidden="true">
+    <row r="114">
       <c r="A114" t="s" s="2">
         <v>388</v>
       </c>
@@ -14992,7 +14974,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="115" hidden="true">
+    <row r="115">
       <c r="A115" t="s" s="2">
         <v>391</v>
       </c>
@@ -15101,7 +15083,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="116" hidden="true">
+    <row r="116">
       <c r="A116" t="s" s="2">
         <v>392</v>
       </c>
@@ -15210,7 +15192,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="117" hidden="true">
+    <row r="117">
       <c r="A117" t="s" s="2">
         <v>393</v>
       </c>
@@ -15321,7 +15303,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="118" hidden="true">
+    <row r="118">
       <c r="A118" t="s" s="2">
         <v>394</v>
       </c>
@@ -15430,7 +15412,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="119" hidden="true">
+    <row r="119">
       <c r="A119" t="s" s="2">
         <v>395</v>
       </c>
@@ -15541,7 +15523,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="120" hidden="true">
+    <row r="120">
       <c r="A120" t="s" s="2">
         <v>398</v>
       </c>
@@ -15650,7 +15632,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="121" hidden="true">
+    <row r="121">
       <c r="A121" t="s" s="2">
         <v>399</v>
       </c>
@@ -15759,7 +15741,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="122" hidden="true">
+    <row r="122">
       <c r="A122" t="s" s="2">
         <v>400</v>
       </c>
@@ -15870,7 +15852,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="123" hidden="true">
+    <row r="123">
       <c r="A123" t="s" s="2">
         <v>401</v>
       </c>
@@ -15979,7 +15961,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="124" hidden="true">
+    <row r="124">
       <c r="A124" t="s" s="2">
         <v>402</v>
       </c>
@@ -16090,7 +16072,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="125" hidden="true">
+    <row r="125">
       <c r="A125" t="s" s="2">
         <v>405</v>
       </c>
@@ -16199,7 +16181,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="126" hidden="true">
+    <row r="126">
       <c r="A126" t="s" s="2">
         <v>406</v>
       </c>
@@ -16308,7 +16290,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="127" hidden="true">
+    <row r="127">
       <c r="A127" t="s" s="2">
         <v>407</v>
       </c>
@@ -16419,7 +16401,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="128" hidden="true">
+    <row r="128">
       <c r="A128" t="s" s="2">
         <v>408</v>
       </c>
@@ -16528,7 +16510,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="129" hidden="true">
+    <row r="129">
       <c r="A129" t="s" s="2">
         <v>409</v>
       </c>
@@ -16639,7 +16621,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="130" hidden="true">
+    <row r="130">
       <c r="A130" t="s" s="2">
         <v>412</v>
       </c>
@@ -16748,7 +16730,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="131" hidden="true">
+    <row r="131">
       <c r="A131" t="s" s="2">
         <v>413</v>
       </c>
@@ -16857,7 +16839,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="132" hidden="true">
+    <row r="132">
       <c r="A132" t="s" s="2">
         <v>414</v>
       </c>
@@ -16968,7 +16950,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="133" hidden="true">
+    <row r="133">
       <c r="A133" t="s" s="2">
         <v>415</v>
       </c>
@@ -17077,7 +17059,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="134" hidden="true">
+    <row r="134">
       <c r="A134" t="s" s="2">
         <v>416</v>
       </c>
@@ -17188,7 +17170,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="135" hidden="true">
+    <row r="135">
       <c r="A135" t="s" s="2">
         <v>419</v>
       </c>
@@ -17297,7 +17279,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="136" hidden="true">
+    <row r="136">
       <c r="A136" t="s" s="2">
         <v>420</v>
       </c>
@@ -17406,7 +17388,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="137" hidden="true">
+    <row r="137">
       <c r="A137" t="s" s="2">
         <v>421</v>
       </c>
@@ -17517,7 +17499,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="138" hidden="true">
+    <row r="138">
       <c r="A138" t="s" s="2">
         <v>422</v>
       </c>
@@ -17626,7 +17608,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="139" hidden="true">
+    <row r="139">
       <c r="A139" t="s" s="2">
         <v>423</v>
       </c>
@@ -17737,7 +17719,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="140" hidden="true">
+    <row r="140">
       <c r="A140" t="s" s="2">
         <v>425</v>
       </c>
@@ -17846,7 +17828,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="141" hidden="true">
+    <row r="141">
       <c r="A141" t="s" s="2">
         <v>426</v>
       </c>
@@ -17959,7 +17941,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="142" hidden="true">
+    <row r="142">
       <c r="A142" t="s" s="2">
         <v>431</v>
       </c>
@@ -17978,7 +17960,7 @@
         <v>78</v>
       </c>
       <c r="H142" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="I142" t="s" s="2">
         <v>76</v>
@@ -18068,7 +18050,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="143" hidden="true">
+    <row r="143">
       <c r="A143" t="s" s="2">
         <v>439</v>
       </c>
@@ -18179,7 +18161,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="144" hidden="true">
+    <row r="144">
       <c r="A144" t="s" s="2">
         <v>442</v>
       </c>
@@ -18288,7 +18270,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="145" hidden="true">
+    <row r="145">
       <c r="A145" t="s" s="2">
         <v>444</v>
       </c>
@@ -18399,7 +18381,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="146" hidden="true">
+    <row r="146">
       <c r="A146" t="s" s="2">
         <v>446</v>
       </c>
@@ -18512,7 +18494,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="147" hidden="true">
+    <row r="147">
       <c r="A147" t="s" s="2">
         <v>456</v>
       </c>
@@ -18625,7 +18607,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="148" hidden="true">
+    <row r="148">
       <c r="A148" t="s" s="2">
         <v>465</v>
       </c>
@@ -18738,7 +18720,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="149" hidden="true">
+    <row r="149">
       <c r="A149" t="s" s="2">
         <v>475</v>
       </c>
@@ -18849,7 +18831,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="150" hidden="true">
+    <row r="150">
       <c r="A150" t="s" s="2">
         <v>483</v>
       </c>
@@ -18958,7 +18940,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="151" hidden="true">
+    <row r="151">
       <c r="A151" t="s" s="2">
         <v>489</v>
       </c>
@@ -19069,7 +19051,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="152" hidden="true">
+    <row r="152">
       <c r="A152" t="s" s="2">
         <v>497</v>
       </c>
@@ -19182,7 +19164,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="153" hidden="true">
+    <row r="153">
       <c r="A153" t="s" s="2">
         <v>504</v>
       </c>
@@ -19293,7 +19275,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="154" hidden="true">
+    <row r="154">
       <c r="A154" t="s" s="2">
         <v>510</v>
       </c>
@@ -19404,7 +19386,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="155" hidden="true">
+    <row r="155">
       <c r="A155" t="s" s="2">
         <v>519</v>
       </c>
@@ -19423,7 +19405,7 @@
         <v>78</v>
       </c>
       <c r="H155" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="I155" t="s" s="2">
         <v>76</v>
@@ -19511,7 +19493,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="156" hidden="true">
+    <row r="156">
       <c r="A156" t="s" s="2">
         <v>528</v>
       </c>
@@ -19620,7 +19602,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="157" hidden="true">
+    <row r="157">
       <c r="A157" t="s" s="2">
         <v>532</v>
       </c>
@@ -19729,7 +19711,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="158" hidden="true">
+    <row r="158">
       <c r="A158" t="s" s="2">
         <v>537</v>
       </c>
@@ -19838,7 +19820,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="159" hidden="true">
+    <row r="159">
       <c r="A159" t="s" s="2">
         <v>543</v>
       </c>
@@ -19947,7 +19929,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="160" hidden="true">
+    <row r="160">
       <c r="A160" t="s" s="2">
         <v>547</v>
       </c>
@@ -20058,7 +20040,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="161" hidden="true">
+    <row r="161">
       <c r="A161" t="s" s="2">
         <v>552</v>
       </c>
@@ -20167,7 +20149,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="162" hidden="true">
+    <row r="162">
       <c r="A162" t="s" s="2">
         <v>557</v>
       </c>
@@ -20276,7 +20258,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="163" hidden="true">
+    <row r="163">
       <c r="A163" t="s" s="2">
         <v>562</v>
       </c>
@@ -20387,7 +20369,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="164" hidden="true">
+    <row r="164">
       <c r="A164" t="s" s="2">
         <v>568</v>
       </c>
@@ -20498,7 +20480,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="165" hidden="true">
+    <row r="165">
       <c r="A165" t="s" s="2">
         <v>573</v>
       </c>
@@ -20628,7 +20610,7 @@
         <v>78</v>
       </c>
       <c r="H166" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="I166" t="s" s="2">
         <v>76</v>
@@ -20718,7 +20700,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="167" hidden="true">
+    <row r="167">
       <c r="A167" t="s" s="2">
         <v>583</v>
       </c>
@@ -20827,7 +20809,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="168" hidden="true">
+    <row r="168">
       <c r="A168" t="s" s="2">
         <v>584</v>
       </c>
@@ -20938,7 +20920,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="169" hidden="true">
+    <row r="169">
       <c r="A169" t="s" s="2">
         <v>585</v>
       </c>
@@ -21051,7 +21033,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="170" hidden="true">
+    <row r="170">
       <c r="A170" t="s" s="2">
         <v>590</v>
       </c>
@@ -21158,7 +21140,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="171" hidden="true">
+    <row r="171">
       <c r="A171" t="s" s="2">
         <v>595</v>
       </c>
@@ -21269,7 +21251,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="172" hidden="true">
+    <row r="172">
       <c r="A172" t="s" s="2">
         <v>600</v>
       </c>
@@ -21399,7 +21381,7 @@
         <v>78</v>
       </c>
       <c r="H173" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="I173" t="s" s="2">
         <v>76</v>
@@ -21489,7 +21471,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="174" hidden="true">
+    <row r="174">
       <c r="A174" t="s" s="2">
         <v>612</v>
       </c>
@@ -21600,7 +21582,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="175" hidden="true">
+    <row r="175">
       <c r="A175" t="s" s="2">
         <v>616</v>
       </c>
@@ -21709,7 +21691,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="176" hidden="true">
+    <row r="176">
       <c r="A176" t="s" s="2">
         <v>621</v>
       </c>
@@ -21818,7 +21800,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="177" hidden="true">
+    <row r="177">
       <c r="A177" t="s" s="2">
         <v>624</v>
       </c>
@@ -21929,7 +21911,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="178" hidden="true">
+    <row r="178">
       <c r="A178" t="s" s="2">
         <v>629</v>
       </c>
@@ -22038,7 +22020,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="179" hidden="true">
+    <row r="179">
       <c r="A179" t="s" s="2">
         <v>630</v>
       </c>
@@ -22149,7 +22131,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="180" hidden="true">
+    <row r="180">
       <c r="A180" t="s" s="2">
         <v>631</v>
       </c>
@@ -22262,7 +22244,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="181" hidden="true">
+    <row r="181">
       <c r="A181" t="s" s="2">
         <v>632</v>
       </c>
@@ -22371,7 +22353,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="182" hidden="true">
+    <row r="182">
       <c r="A182" t="s" s="2">
         <v>637</v>
       </c>
@@ -22480,7 +22462,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="183" hidden="true">
+    <row r="183">
       <c r="A183" t="s" s="2">
         <v>640</v>
       </c>
@@ -22591,7 +22573,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="184" hidden="true">
+    <row r="184">
       <c r="A184" t="s" s="2">
         <v>645</v>
       </c>
@@ -22702,7 +22684,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="185" hidden="true">
+    <row r="185">
       <c r="A185" t="s" s="2">
         <v>648</v>
       </c>
@@ -22811,7 +22793,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="186" hidden="true">
+    <row r="186">
       <c r="A186" t="s" s="2">
         <v>651</v>
       </c>
@@ -22920,7 +22902,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="187" hidden="true">
+    <row r="187">
       <c r="A187" t="s" s="2">
         <v>652</v>
       </c>
@@ -23031,7 +23013,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="188" hidden="true">
+    <row r="188">
       <c r="A188" t="s" s="2">
         <v>653</v>
       </c>
@@ -23144,7 +23126,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="189" hidden="true">
+    <row r="189">
       <c r="A189" t="s" s="2">
         <v>654</v>
       </c>
@@ -23253,7 +23235,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="190" hidden="true">
+    <row r="190">
       <c r="A190" t="s" s="2">
         <v>657</v>
       </c>
@@ -23362,7 +23344,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="191" hidden="true">
+    <row r="191">
       <c r="A191" t="s" s="2">
         <v>660</v>
       </c>
@@ -23471,7 +23453,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="192" hidden="true">
+    <row r="192">
       <c r="A192" t="s" s="2">
         <v>663</v>
       </c>
@@ -23581,24 +23563,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM192">
-    <filterColumn colId="7">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="27">
-      <filters blank="true"/>
-    </filterColumn>
-  </autoFilter>
-  <conditionalFormatting sqref="A2:AI191">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$G2&lt;&gt;"Y"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$Q2&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>